--- a/Data/EC/NIT-9004487156.xlsx
+++ b/Data/EC/NIT-9004487156.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B298E1F-FC14-4D83-ABE9-E1F271895050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C875CA9-B45D-4ACE-BABC-BD7C5A9AA6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F493B19E-8AC9-4F4F-967E-10376AB20E89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2930CC1E-05EB-4D51-9656-48A4522E06CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,7 +71,13 @@
     <t>CEDRICK CONTRERA GUARDO</t>
   </si>
   <si>
-    <t>2504</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>45687489</t>
+  </si>
+  <si>
+    <t>XIOMARA PATRICIA MONROY TINOCO</t>
   </si>
   <si>
     <t>32939066</t>
@@ -80,10 +86,10 @@
     <t>KAREN MARGARITA SARABIA AYOLA</t>
   </si>
   <si>
-    <t>45687489</t>
-  </si>
-  <si>
-    <t>XIOMARA PATRICIA MONROY TINOCO</t>
+    <t>1047475016</t>
+  </si>
+  <si>
+    <t>NELSON ENRIQUE GOMEZ VEGA</t>
   </si>
   <si>
     <t>1047434781</t>
@@ -92,16 +98,16 @@
     <t>DARWIN ALEXANDER ESCOBAR MIRANDA</t>
   </si>
   <si>
-    <t>1047475016</t>
-  </si>
-  <si>
-    <t>NELSON ENRIQUE GOMEZ VEGA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1002191142</t>
+  </si>
+  <si>
+    <t>GLENDA MARCELA MIELES GOMEZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7293A288-662A-1765-4671-455DBE8A2956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B83C8D-576F-E633-87C1-9BC5FFC08B6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB547F-FF96-41E4-86CE-2658D1ABB393}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B16A0B-D497-4CA4-ACF6-5AD868606D07}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -891,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1280460</v>
+        <v>506820</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,14 +990,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1021,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1067,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>128000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>3200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1090,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>128000</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>3200000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1150,259 +1156,75 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>128000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>3200000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="C22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="E22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1200000</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="18">
-        <v>128000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3200000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G30" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
+      <c r="B28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004487156.xlsx
+++ b/Data/EC/NIT-9004487156.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C875CA9-B45D-4ACE-BABC-BD7C5A9AA6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E23AEDA-1546-4520-813C-DA57739D3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2930CC1E-05EB-4D51-9656-48A4522E06CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F282226C-8733-4054-B762-B343A690D2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -98,16 +98,7 @@
     <t>DARWIN ALEXANDER ESCOBAR MIRANDA</t>
   </si>
   <si>
-    <t>1002191142</t>
-  </si>
-  <si>
-    <t>GLENDA MARCELA MIELES GOMEZ</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B83C8D-576F-E633-87C1-9BC5FFC08B6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B296B9-F89C-AF5F-6776-D05A4BA3906D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,8 +863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B16A0B-D497-4CA4-ACF6-5AD868606D07}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86880C25-1470-4571-A389-E8A6E7D6BF43}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -897,7 +888,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -942,7 +933,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -974,12 +965,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>506820</v>
+        <v>853640</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,17 +981,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1027,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1156,75 +1147,144 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>128000</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>3200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1200000</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F22" s="18">
+        <v>128000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3200000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
